--- a/docs/diagrams.xlsx
+++ b/docs/diagrams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Blood_Science\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F7C779-332A-43E7-9D2F-449ED4613B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008D8A2-6B2E-407D-B654-19C6BFC3A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+  <si>
+    <t>М/С</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="0.000000000E+00"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000E+00"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,9 +99,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -130,15 +143,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0,1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>H = 0,1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -154,9 +159,9 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$14:$F$14</c:f>
+              <c:f>Лист1!$A$16:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -217,15 +222,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0,3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>H = 0,3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -241,9 +238,9 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$14:$F$14</c:f>
+              <c:f>Лист1!$A$16:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -268,7 +265,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$11:$F$11</c:f>
+              <c:f>Лист1!$A$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -304,15 +301,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0,5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>H = 0,5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -328,9 +317,9 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$14:$F$14</c:f>
+              <c:f>Лист1!$A$16:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -355,7 +344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$17:$F$17</c:f>
+              <c:f>Лист1!$A$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -440,14 +429,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" b="1"/>
                   <a:t>Коэффициент</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
                   <a:t> деформации</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="ru-RU" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -566,15 +555,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" b="1"/>
                   <a:t>Скорость потока (м</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>/</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
+                  <a:rPr lang="ru-RU" b="1"/>
                   <a:t>с)</a:t>
                 </a:r>
               </a:p>
@@ -643,6 +632,581 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="444040336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.0000000000000026E-9"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>H = 0,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0531656038030866E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9013518748624491E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.829077813733453E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6271932913293411E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3356042800626762E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DBE7-4865-A550-798C25FD6866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>H = 0,3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9994803427952194E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2036218737281995E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4050169404918482E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1157279607271543E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8607113091788882E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DBE7-4865-A550-798C25FD6866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>H = 0,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6350454033668319E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8908438621067837E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9671095006606561E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.864123794926751E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1787839251739457E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DBE7-4865-A550-798C25FD6866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="604571904"/>
+        <c:axId val="604559904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="604571904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Коэффициент деформации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604559904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604559904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Погрешность (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604571904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,6 +1333,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1285,20 +1889,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1239822</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>193642</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1306083</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>193643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>668321</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>187072</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65347</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1318,6 +2438,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1255643</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602BB1DF-3E5C-2D64-0C45-EE948131D8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1643,19 +2799,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>0.1</v>
       </c>
@@ -1665,7 +2821,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1685,7 +2841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3.2044890499999999E-5</v>
       </c>
@@ -1704,8 +2860,11 @@
       <c r="F3" s="2">
         <v>3.1010502840000002E-5</v>
       </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3.2041589059999997E-5</v>
       </c>
@@ -1724,8 +2883,11 @@
       <c r="F4" s="2">
         <v>3.1007014449999997E-5</v>
       </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>A3/1000</f>
         <v>3.20448905E-8</v>
@@ -1750,249 +2912,325 @@
         <f t="shared" si="0"/>
         <v>3.1010502839999999E-8</v>
       </c>
-      <c r="G5">
-        <v>1000</v>
+      <c r="G5" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>($A3 - A3 ) / A3</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:F6" si="1">($A3 - B3 ) / B3</f>
+        <v>3.0531656038030866E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9013518748624491E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.829077813733453E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6271932913293411E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3356042800626762E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>0.3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>0.1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>0.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>0.3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>0.4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>3.7468032939999999E-5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>3.7393265840000003E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>3.7200057790000002E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>3.6948894710000003E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>3.6691735630000001E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>3.642599051E-5</v>
       </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>3.7469717730000002E-5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>3.7394964249999997E-5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>3.7201825420000001E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>3.695073911E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>3.6693667620000003E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>3.6427938280000003E-5</v>
       </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <f>A9/1000</f>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>A10/1000</f>
         <v>3.746803294E-8</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:F11" si="1">B9/1000</f>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:F12" si="2">B10/1000</f>
         <v>3.7393265840000004E-8</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
         <v>3.7200057789999999E-8</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
         <v>3.6948894710000005E-8</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
         <v>3.6691735629999998E-8</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
         <v>3.6425990510000002E-8</v>
       </c>
-      <c r="G11">
-        <v>1000</v>
+      <c r="G12" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>($A10 - A10 ) / A10</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:F13" si="3">($A10 - B10 ) / B10</f>
+        <v>1.9994803427952194E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2036218737281995E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4050169404918482E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1157279607271543E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8607113091788882E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>0.5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B16" s="4">
         <v>0.1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C16" s="4">
         <v>0.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D16" s="4">
         <v>0.3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E16" s="4">
         <v>0.4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F16" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>4.6300680640000003E-5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B17" s="2">
         <v>4.6265356830000001E-5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C17" s="2">
         <v>4.6167218420000003E-5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="2">
         <v>4.6026038229999999E-5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E17" s="2">
         <v>4.589387168E-5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F17" s="2">
         <v>4.5761254329999997E-5</v>
       </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>4.628104246E-5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="2">
         <v>4.6245708739999999E-5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>4.6147570000000003E-5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>4.6006397689999997E-5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E18" s="2">
         <v>4.587424277E-5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="2">
         <v>4.5741629190000002E-5</v>
       </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f>A15/1000</f>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f>A17/1000</f>
         <v>4.6300680640000006E-8</v>
       </c>
-      <c r="B17" s="2">
-        <f t="shared" ref="B17:F17" si="2">B15/1000</f>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:F19" si="4">B17/1000</f>
         <v>4.626535683E-8</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="2"/>
+      <c r="C19" s="2">
+        <f t="shared" si="4"/>
         <v>4.6167218420000006E-8</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
+      <c r="D19" s="2">
+        <f t="shared" si="4"/>
         <v>4.6026038230000001E-8</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
+      <c r="E19" s="2">
+        <f t="shared" si="4"/>
         <v>4.5893871679999998E-8</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
         <v>4.5761254329999996E-8</v>
       </c>
-      <c r="G17">
-        <v>1000</v>
+      <c r="G19" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <f>B17-$A$17</f>
-        <v>-3.5323810000005431E-11</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:F18" si="3">C17-$A$17</f>
-        <v>-1.3346222000000004E-10</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.7464241000000411E-10</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>-4.0680896000000753E-10</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="3"/>
-        <v>-5.3942631000000907E-10</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f>($A17 - A17 ) / A17</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:F20" si="5">($A17 - B17 ) / B17</f>
+        <v>7.6350454033668319E-4</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8908438621067837E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="5"/>
+        <v>5.9671095006606561E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="5"/>
+        <v>8.864123794926751E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1787839251739457E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/diagrams.xlsx
+++ b/docs/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Blood_Science\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008D8A2-6B2E-407D-B654-19C6BFC3A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191E1E7-C9E5-467C-B9E7-A6041C57CDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
@@ -511,6 +511,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -755,7 +756,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -834,7 +847,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -913,7 +938,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -984,6 +1021,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="604571904"/>
         <c:axId val="604559904"/>
@@ -995,6 +1033,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2802,7 +2854,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/docs/diagrams.xlsx
+++ b/docs/diagrams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Blood_Science\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191E1E7-C9E5-467C-B9E7-A6041C57CDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D9E1A7-8664-4B67-BB10-86FC0234F5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>М/С</t>
   </si>
@@ -48,6 +48,33 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>По OX — H</t>
+  </si>
+  <si>
+    <t>1. Фиксируем коэф. Деформ.</t>
+  </si>
+  <si>
+    <t>2. Сравниваем поток для H (0.1 - 0.5)</t>
+  </si>
+  <si>
+    <t>(Сравнение поведения скоростей при изменении гематокрита при константной скорости)</t>
+  </si>
+  <si>
+    <t>(ПЕРЕПРОВЕРИТЬ ГРАФИКИ!!!!!!!!)</t>
+  </si>
+  <si>
+    <t>Уравнение Стокса с переменной вязкостью</t>
+  </si>
+  <si>
+    <t>Целью чис. Мод. Было исследование влияния коэффициента деформации на величину потока крови</t>
+  </si>
+  <si>
+    <t>(Актуальность -&gt; /Мат. Модель -&gt; Численная реализация\ -&gt; Вывод)</t>
+  </si>
+  <si>
+    <t>Так как ошибка достаточно мала (1% в пределах ошибки измерений), то можно пренебречь деформацией при моделировании -&gt; можно вместо численного подхода использовать аналитические формулы -&gt; ускорение вычислений</t>
   </si>
 </sst>
 </file>
@@ -96,12 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -143,7 +171,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>H = 0,1</c:v>
+            <c:v>H = 0,5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -161,7 +189,7 @@
             <c:numRef>
               <c:f>Лист1!$A$16:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -240,7 +268,7 @@
             <c:numRef>
               <c:f>Лист1!$A$16:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -301,7 +329,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>H = 0,5</c:v>
+            <c:v>H = 0,1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -319,7 +347,7 @@
             <c:numRef>
               <c:f>Лист1!$A$16:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -744,7 +772,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>H = 0,1</c:v>
+            <c:v>H = 0,5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -926,7 +954,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>H = 0,5</c:v>
+            <c:v>H = 0,1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2851,21 +2879,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2873,7 +2901,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2893,7 +2921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3.2044890499999999E-5</v>
       </c>
@@ -2916,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3.2041589059999997E-5</v>
       </c>
@@ -2939,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>A3/1000</f>
         <v>3.20448905E-8</v>
@@ -2968,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>($A3 - A3 ) / A3</f>
         <v>0</v>
@@ -2997,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3005,7 +3033,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.3</v>
       </c>
@@ -3015,7 +3043,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -3035,7 +3063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3.7468032939999999E-5</v>
       </c>
@@ -3058,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3.7469717730000002E-5</v>
       </c>
@@ -3081,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>A10/1000</f>
         <v>3.746803294E-8</v>
@@ -3110,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>($A10 - A10 ) / A10</f>
         <v>0</v>
@@ -3139,7 +3167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3147,9 +3175,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3157,7 +3185,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0</v>
       </c>
@@ -3177,7 +3205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4.6300680640000003E-5</v>
       </c>
@@ -3200,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4.628104246E-5</v>
       </c>
@@ -3223,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>A17/1000</f>
         <v>4.6300680640000006E-8</v>
@@ -3252,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>($A17 - A17 ) / A17</f>
         <v>0</v>
@@ -3281,8 +3309,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
